--- a/dontTouch.xlsx
+++ b/dontTouch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b402ce380853d754/Рабочий стол/Go/autoMessages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B5A28E-6467-4586-9D07-73EBC68EFBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{21B5A28E-6467-4586-9D07-73EBC68EFBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3575F6F-39C0-463E-B97A-93555B03BD64}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F7CA276-D95F-449F-8947-3B8E39812162}"/>
   </bookViews>
@@ -403,9 +403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C145EB1-1E55-4C7D-9758-060865269907}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -417,6 +419,11 @@
         <v>89277330083</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>89954846050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dontTouch.xlsx
+++ b/dontTouch.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b402ce380853d754/Рабочий стол/Go/autoMessages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dstep\OneDrive\Рабочий стол\Go\autoMessages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{21B5A28E-6467-4586-9D07-73EBC68EFBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3575F6F-39C0-463E-B97A-93555B03BD64}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A4649-38E4-4CAA-B67F-5AEA9F08D83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F7CA276-D95F-449F-8947-3B8E39812162}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{0F7CA276-D95F-449F-8947-3B8E39812162}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,21 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>iphone 14</t>
+  </si>
+  <si>
+    <t>Ipone 6</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,25 +412,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C145EB1-1E55-4C7D-9758-060865269907}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>89277330083</v>
+        <v>79376546000</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>79954846090</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>89954846050</v>
+        <v>89277330083</v>
       </c>
     </row>
   </sheetData>
